--- a/saraceni_wines/Ricette per Foodpairing + ricette italiane.xlsx
+++ b/saraceni_wines/Ricette per Foodpairing + ricette italiane.xlsx
@@ -1201,7 +1201,7 @@
     <t>Let's Celebrate</t>
   </si>
   <si>
-    <t>Private tasting room</t>
+    <t>Saraceni™ Private Tasting Room | 6-pack</t>
   </si>
   <si>
     <t>Made in Tuscany with love</t>
@@ -31141,7 +31141,7 @@
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="255" t="s">
-        <v>421</v>
+        <v>214</v>
       </c>
       <c r="C9" s="256"/>
       <c r="D9" s="257" t="s">
